--- a/data/df_pipethefts_15_19.xlsx
+++ b/data/df_pipethefts_15_19.xlsx
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1421,7 +1421,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>9.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1429,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>104.8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1437,7 +1437,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1445,7 +1445,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1477,7 +1477,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>11.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1485,7 +1485,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1517,7 +1517,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1533,7 +1533,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1557,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>7.8</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1573,7 +1573,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1605,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>24.4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1621,7 +1621,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>13.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1629,7 +1629,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>8.666666666666666</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1637,7 +1637,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>14.6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1645,7 +1645,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1669,7 +1669,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1693,7 +1693,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>36.8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1717,7 +1717,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>10.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1725,7 +1725,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>5.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1733,7 +1733,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>5.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1749,7 +1749,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>78.8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1757,7 +1757,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1765,7 +1765,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>59.2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1789,7 +1789,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>27.6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1797,7 +1797,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>365.4</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1805,7 +1805,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>118.4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1837,7 +1837,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>160.4</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1845,7 +1845,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1869,7 +1869,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>223.4</v>
+        <v>223</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1877,7 +1877,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>14.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1885,7 +1885,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>56.16666666666666</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1901,7 +1901,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>65.2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1917,7 +1917,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1933,7 +1933,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>41.8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1949,7 +1949,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>115.2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1965,7 +1965,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>261.6</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1981,7 +1981,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>28.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1997,7 +1997,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>28.2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2021,7 +2021,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>38.8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2029,7 +2029,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>29.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2037,7 +2037,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>12.6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2045,7 +2045,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>95.59999999999999</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2061,7 +2061,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>55.75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2069,7 +2069,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>36.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2077,7 +2077,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>66.16666666666667</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2101,7 +2101,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>78.59999999999999</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2117,7 +2117,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>36.8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2125,7 +2125,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>51.2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2133,7 +2133,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>72.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2157,7 +2157,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2165,7 +2165,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>36.6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2173,7 +2173,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>45.4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2181,7 +2181,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>16.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2189,7 +2189,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>26.4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2197,7 +2197,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2213,7 +2213,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>24.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2221,7 +2221,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>5.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2245,7 +2245,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>157.8333333333333</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2253,7 +2253,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2261,7 +2261,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>34.8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2269,7 +2269,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>4.75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2277,7 +2277,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>19.6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2285,7 +2285,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>81.40000000000001</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2301,7 +2301,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>91.8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2317,7 +2317,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>12.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2325,7 +2325,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2333,7 +2333,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>20.6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2341,7 +2341,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>167.2</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2357,7 +2357,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>33.75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2365,7 +2365,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>9.571428571428571</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2373,7 +2373,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>15.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2381,7 +2381,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>36.4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2389,7 +2389,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>44.2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2397,7 +2397,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2413,7 +2413,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>7.6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2421,7 +2421,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>23.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2429,7 +2429,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>22.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2437,7 +2437,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2445,7 +2445,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>147.4</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2461,7 +2461,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>3.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2469,7 +2469,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>31.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2477,7 +2477,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2485,7 +2485,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>20.2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2493,7 +2493,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>6.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2525,7 +2525,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>31.8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2533,7 +2533,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>59.6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2541,7 +2541,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>12.25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2549,7 +2549,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>19.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2565,7 +2565,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>12.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2573,7 +2573,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>2.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2589,7 +2589,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2597,7 +2597,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>39.8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2605,7 +2605,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>87.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2637,7 +2637,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>52.4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2653,7 +2653,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>11.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2661,7 +2661,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>122.4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2685,7 +2685,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>15.6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2693,7 +2693,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>2.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2725,7 +2725,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>5.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2733,7 +2733,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>33.2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2741,7 +2741,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>7.166666666666667</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2749,7 +2749,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2781,7 +2781,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2789,7 +2789,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>26.6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2797,7 +2797,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>14.8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2813,7 +2813,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>12.8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2821,7 +2821,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>12.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2837,7 +2837,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>16.8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2845,7 +2845,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>5.75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2853,7 +2853,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>20.66666666666667</v>
+        <v>21</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2861,7 +2861,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>18.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2877,7 +2877,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>16.66666666666667</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2885,7 +2885,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>27.8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2901,7 +2901,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>2.333333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2909,7 +2909,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>9.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2917,7 +2917,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>22.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2925,7 +2925,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2941,7 +2941,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>69.25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2949,7 +2949,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>23.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2957,7 +2957,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>26.4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2965,7 +2965,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>53.4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2973,7 +2973,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>16.66666666666667</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2997,7 +2997,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>32.75</v>
+        <v>33</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3005,7 +3005,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>29.4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3013,7 +3013,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>37.2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3037,7 +3037,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>89.8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3045,7 +3045,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>36.8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3053,7 +3053,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>76.59999999999999</v>
+        <v>77</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3061,7 +3061,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>3.666666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3069,7 +3069,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>255.4</v>
+        <v>255</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3077,7 +3077,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>77.16666666666667</v>
+        <v>77</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3093,7 +3093,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>30.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3101,7 +3101,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>5.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3117,7 +3117,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>48.33333333333334</v>
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3125,7 +3125,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>7.25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3133,7 +3133,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>8.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3141,7 +3141,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>25.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3149,7 +3149,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>26.33333333333333</v>
+        <v>26</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3157,7 +3157,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>11.25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3173,7 +3173,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>7.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3181,7 +3181,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>121.3333333333333</v>
+        <v>121</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3229,7 +3229,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>51.4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3237,7 +3237,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>16.75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3245,7 +3245,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>26.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3253,7 +3253,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>81.5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3261,7 +3261,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>81.8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3285,7 +3285,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>24.2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3293,7 +3293,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>10.75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3309,7 +3309,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>32.2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3317,7 +3317,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>11.6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3325,7 +3325,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>110.6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3333,7 +3333,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>7.333333333333333</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3341,7 +3341,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>6.666666666666667</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3349,7 +3349,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>33.8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3357,7 +3357,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>122.2</v>
+        <v>122</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3405,7 +3405,7 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>5.666666666666667</v>
+        <v>6</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3429,7 +3429,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>428.4</v>
+        <v>428</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3437,7 +3437,7 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3453,7 +3453,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>222.6</v>
+        <v>223</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3477,7 +3477,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>38.8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3485,7 +3485,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>128.8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3501,7 +3501,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>68.59999999999999</v>
+        <v>69</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3525,7 +3525,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>12.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3541,7 +3541,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>76.16666666666667</v>
+        <v>76</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3565,7 +3565,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>50.8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3573,7 +3573,7 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3605,7 +3605,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3661,7 +3661,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>3.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -3677,7 +3677,7 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>31.2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3685,7 +3685,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>15.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3693,7 +3693,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>16.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -3701,7 +3701,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>28.66666666666667</v>
+        <v>29</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -3709,7 +3709,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>12.4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -3717,7 +3717,7 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -3725,7 +3725,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>52.6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -3741,7 +3741,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>12.2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -3749,7 +3749,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>44.8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -3765,7 +3765,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>2.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3773,7 +3773,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>97.40000000000001</v>
+        <v>97</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -3781,7 +3781,7 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -3797,7 +3797,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -3813,7 +3813,7 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -3829,7 +3829,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>106.8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -3869,7 +3869,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -3877,7 +3877,7 @@
         <v>313</v>
       </c>
       <c r="B313">
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -3909,7 +3909,7 @@
         <v>317</v>
       </c>
       <c r="B317">
-        <v>28.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -3933,7 +3933,7 @@
         <v>320</v>
       </c>
       <c r="B320">
-        <v>120.2</v>
+        <v>120</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -3941,7 +3941,7 @@
         <v>321</v>
       </c>
       <c r="B321">
-        <v>43.8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -3989,7 +3989,7 @@
         <v>327</v>
       </c>
       <c r="B327">
-        <v>4.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -3997,7 +3997,7 @@
         <v>328</v>
       </c>
       <c r="B328">
-        <v>20.6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4013,7 +4013,7 @@
         <v>330</v>
       </c>
       <c r="B330">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:2">
